--- a/Tanya/R_calc_FucTrEd/Data/FucTrEd.xlsx
+++ b/Tanya/R_calc_FucTrEd/Data/FucTrEd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\ЛЭМБ\FucTrEd\FucTrEd\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\ЛЭМБ\FucTrEd\R_calc_FucTrEd\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0FBCB5-5EB9-4FED-A64D-948900AB0D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97E6CE2-9F5D-4E09-B36D-494025D9826E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{F03D9BD5-5925-4266-BABC-F2F6136DA5FA}"/>
   </bookViews>
@@ -19,7 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$H$205</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист3!$A$1:$E$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист2!$A$1:$Q$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист3!$A$1:$F$247</definedName>
     <definedName name="А26">Лист1!$WWI$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="103">
   <si>
     <t>Live</t>
   </si>
@@ -341,6 +342,15 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -700,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE086C04-F91E-435B-B239-C158F763509E}">
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="E247" sqref="E247"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -711,7 +721,7 @@
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -727,8 +737,11 @@
       <c r="E1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -744,8 +757,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -761,8 +777,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -778,8 +797,11 @@
       <c r="E4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -795,8 +817,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -812,8 +837,11 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -829,8 +857,11 @@
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -846,8 +877,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2</v>
       </c>
@@ -863,8 +897,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2</v>
       </c>
@@ -880,8 +917,11 @@
       <c r="E10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2</v>
       </c>
@@ -897,8 +937,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -914,8 +957,11 @@
       <c r="E12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
@@ -931,8 +977,11 @@
       <c r="E13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2</v>
       </c>
@@ -948,8 +997,11 @@
       <c r="E14">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2</v>
       </c>
@@ -965,8 +1017,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2</v>
       </c>
@@ -982,8 +1037,11 @@
       <c r="E16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -999,8 +1057,11 @@
       <c r="E17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1016,8 +1077,11 @@
       <c r="E18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1033,8 +1097,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1050,8 +1117,11 @@
       <c r="E20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1067,8 +1137,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1084,8 +1157,11 @@
       <c r="E22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1101,8 +1177,11 @@
       <c r="E23">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1118,8 +1197,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1135,8 +1217,11 @@
       <c r="E25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1152,8 +1237,11 @@
       <c r="E26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1169,8 +1257,11 @@
       <c r="E27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1186,8 +1277,11 @@
       <c r="E28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1203,8 +1297,11 @@
       <c r="E29">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1220,8 +1317,11 @@
       <c r="E30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1237,8 +1337,11 @@
       <c r="E31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1254,8 +1357,11 @@
       <c r="E32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1271,8 +1377,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1288,8 +1397,11 @@
       <c r="E34">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1305,8 +1417,11 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1322,8 +1437,11 @@
       <c r="E36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1339,8 +1457,11 @@
       <c r="E37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1356,8 +1477,11 @@
       <c r="E38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1373,8 +1497,11 @@
       <c r="E39">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>6</v>
       </c>
@@ -1390,8 +1517,11 @@
       <c r="E40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1407,8 +1537,11 @@
       <c r="E41">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1424,8 +1557,11 @@
       <c r="E42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>7</v>
       </c>
@@ -1441,8 +1577,11 @@
       <c r="E43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1458,8 +1597,11 @@
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>7</v>
       </c>
@@ -1475,8 +1617,11 @@
       <c r="E45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>7</v>
       </c>
@@ -1492,8 +1637,11 @@
       <c r="E46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>7</v>
       </c>
@@ -1509,8 +1657,11 @@
       <c r="E47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>7</v>
       </c>
@@ -1526,8 +1677,11 @@
       <c r="E48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>8</v>
       </c>
@@ -1543,8 +1697,11 @@
       <c r="E49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>8</v>
       </c>
@@ -1560,8 +1717,11 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>8</v>
       </c>
@@ -1577,8 +1737,11 @@
       <c r="E51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>8</v>
       </c>
@@ -1594,8 +1757,11 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>8</v>
       </c>
@@ -1611,8 +1777,11 @@
       <c r="E53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>8</v>
       </c>
@@ -1628,8 +1797,11 @@
       <c r="E54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>8</v>
       </c>
@@ -1645,8 +1817,11 @@
       <c r="E55">
         <v>28</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>8</v>
       </c>
@@ -1662,8 +1837,11 @@
       <c r="E56">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>8</v>
       </c>
@@ -1679,8 +1857,11 @@
       <c r="E57">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>8</v>
       </c>
@@ -1696,8 +1877,11 @@
       <c r="E58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>8</v>
       </c>
@@ -1713,8 +1897,11 @@
       <c r="E59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>8</v>
       </c>
@@ -1730,8 +1917,11 @@
       <c r="E60">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>9</v>
       </c>
@@ -1747,8 +1937,11 @@
       <c r="E61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>9</v>
       </c>
@@ -1764,8 +1957,11 @@
       <c r="E62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>9</v>
       </c>
@@ -1781,8 +1977,11 @@
       <c r="E63">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>9</v>
       </c>
@@ -1798,8 +1997,11 @@
       <c r="E64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>9</v>
       </c>
@@ -1815,8 +2017,11 @@
       <c r="E65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>9</v>
       </c>
@@ -1832,8 +2037,11 @@
       <c r="E66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>10</v>
       </c>
@@ -1849,8 +2057,11 @@
       <c r="E67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>10</v>
       </c>
@@ -1866,8 +2077,11 @@
       <c r="E68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>10</v>
       </c>
@@ -1883,8 +2097,11 @@
       <c r="E69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>10</v>
       </c>
@@ -1900,8 +2117,11 @@
       <c r="E70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>10</v>
       </c>
@@ -1917,8 +2137,11 @@
       <c r="E71">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>10</v>
       </c>
@@ -1934,8 +2157,11 @@
       <c r="E72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>11</v>
       </c>
@@ -1951,8 +2177,11 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>11</v>
       </c>
@@ -1968,8 +2197,11 @@
       <c r="E74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>11</v>
       </c>
@@ -1985,8 +2217,11 @@
       <c r="E75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>11</v>
       </c>
@@ -2002,8 +2237,11 @@
       <c r="E76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>11</v>
       </c>
@@ -2019,8 +2257,11 @@
       <c r="E77">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>11</v>
       </c>
@@ -2036,8 +2277,11 @@
       <c r="E78">
         <v>33</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>11</v>
       </c>
@@ -2053,8 +2297,11 @@
       <c r="E79">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>11</v>
       </c>
@@ -2070,8 +2317,11 @@
       <c r="E80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>12</v>
       </c>
@@ -2087,8 +2337,11 @@
       <c r="E81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>12</v>
       </c>
@@ -2104,8 +2357,11 @@
       <c r="E82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>12</v>
       </c>
@@ -2121,8 +2377,11 @@
       <c r="E83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>13</v>
       </c>
@@ -2138,8 +2397,11 @@
       <c r="E84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>14</v>
       </c>
@@ -2155,8 +2417,11 @@
       <c r="E85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>14</v>
       </c>
@@ -2172,8 +2437,11 @@
       <c r="E86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>14</v>
       </c>
@@ -2189,8 +2457,11 @@
       <c r="E87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>15</v>
       </c>
@@ -2206,8 +2477,11 @@
       <c r="E88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>15</v>
       </c>
@@ -2223,8 +2497,11 @@
       <c r="E89">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>15</v>
       </c>
@@ -2240,8 +2517,11 @@
       <c r="E90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>16</v>
       </c>
@@ -2257,8 +2537,11 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>17</v>
       </c>
@@ -2274,8 +2557,11 @@
       <c r="E92">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>17</v>
       </c>
@@ -2291,8 +2577,11 @@
       <c r="E93">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>17</v>
       </c>
@@ -2308,8 +2597,11 @@
       <c r="E94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>17</v>
       </c>
@@ -2325,8 +2617,11 @@
       <c r="E95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>17</v>
       </c>
@@ -2342,8 +2637,11 @@
       <c r="E96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>18</v>
       </c>
@@ -2359,8 +2657,11 @@
       <c r="E97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>18</v>
       </c>
@@ -2376,8 +2677,11 @@
       <c r="E98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>19</v>
       </c>
@@ -2393,8 +2697,11 @@
       <c r="E99">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>19</v>
       </c>
@@ -2410,8 +2717,11 @@
       <c r="E100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>19</v>
       </c>
@@ -2427,8 +2737,11 @@
       <c r="E101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>19</v>
       </c>
@@ -2444,8 +2757,11 @@
       <c r="E102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>20</v>
       </c>
@@ -2461,8 +2777,11 @@
       <c r="E103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>21</v>
       </c>
@@ -2478,8 +2797,11 @@
       <c r="E104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>21</v>
       </c>
@@ -2495,8 +2817,11 @@
       <c r="E105">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>21</v>
       </c>
@@ -2512,8 +2837,11 @@
       <c r="E106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>22</v>
       </c>
@@ -2529,8 +2857,11 @@
       <c r="E107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>22</v>
       </c>
@@ -2546,8 +2877,11 @@
       <c r="E108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F108" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>22</v>
       </c>
@@ -2563,8 +2897,11 @@
       <c r="E109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>22</v>
       </c>
@@ -2580,8 +2917,11 @@
       <c r="E110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>22</v>
       </c>
@@ -2597,8 +2937,11 @@
       <c r="E111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F111" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>23</v>
       </c>
@@ -2614,8 +2957,11 @@
       <c r="E112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>23</v>
       </c>
@@ -2631,8 +2977,11 @@
       <c r="E113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>23</v>
       </c>
@@ -2648,8 +2997,11 @@
       <c r="E114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F114" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>23</v>
       </c>
@@ -2665,8 +3017,11 @@
       <c r="E115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>24</v>
       </c>
@@ -2682,8 +3037,11 @@
       <c r="E116">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>24</v>
       </c>
@@ -2699,8 +3057,11 @@
       <c r="E117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>24</v>
       </c>
@@ -2716,8 +3077,11 @@
       <c r="E118">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>24</v>
       </c>
@@ -2733,8 +3097,11 @@
       <c r="E119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F119" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>25</v>
       </c>
@@ -2750,8 +3117,11 @@
       <c r="E120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F120" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>25</v>
       </c>
@@ -2767,8 +3137,11 @@
       <c r="E121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F121" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>25</v>
       </c>
@@ -2784,8 +3157,11 @@
       <c r="E122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F122" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>26</v>
       </c>
@@ -2801,8 +3177,11 @@
       <c r="E123">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F123" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>26</v>
       </c>
@@ -2818,8 +3197,11 @@
       <c r="E124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F124" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>26</v>
       </c>
@@ -2835,8 +3217,11 @@
       <c r="E125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F125" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>26</v>
       </c>
@@ -2852,8 +3237,11 @@
       <c r="E126">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F126" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>27</v>
       </c>
@@ -2869,8 +3257,11 @@
       <c r="E127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F127" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>27</v>
       </c>
@@ -2886,8 +3277,11 @@
       <c r="E128">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F128" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>27</v>
       </c>
@@ -2903,8 +3297,11 @@
       <c r="E129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F129" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>27</v>
       </c>
@@ -2920,8 +3317,11 @@
       <c r="E130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F130" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>28</v>
       </c>
@@ -2937,8 +3337,11 @@
       <c r="E131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>28</v>
       </c>
@@ -2954,8 +3357,11 @@
       <c r="E132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>28</v>
       </c>
@@ -2971,8 +3377,11 @@
       <c r="E133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>32</v>
       </c>
@@ -2988,8 +3397,11 @@
       <c r="E134">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>32</v>
       </c>
@@ -3005,8 +3417,11 @@
       <c r="E135">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>32</v>
       </c>
@@ -3022,8 +3437,11 @@
       <c r="E136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>32</v>
       </c>
@@ -3039,8 +3457,11 @@
       <c r="E137">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>33</v>
       </c>
@@ -3056,8 +3477,11 @@
       <c r="E138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>33</v>
       </c>
@@ -3073,110 +3497,11 @@
       <c r="E139">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A140">
-        <v>34</v>
-      </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" t="s">
-        <v>3</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A141">
-        <v>36</v>
-      </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" t="s">
-        <v>3</v>
-      </c>
-      <c r="E141">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A142">
-        <v>36</v>
-      </c>
-      <c r="B142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" t="s">
-        <v>3</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A143">
-        <v>36</v>
-      </c>
-      <c r="B143" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" t="s">
-        <v>3</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A144">
-        <v>36</v>
-      </c>
-      <c r="B144" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" t="s">
-        <v>3</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A145">
-        <v>36</v>
-      </c>
-      <c r="B145" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" t="s">
-        <v>3</v>
-      </c>
-      <c r="E145">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>12</v>
       </c>
@@ -3192,8 +3517,11 @@
       <c r="E146">
         <v>27</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F146" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>12</v>
       </c>
@@ -3209,8 +3537,11 @@
       <c r="E147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F147" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>12</v>
       </c>
@@ -3226,8 +3557,11 @@
       <c r="E148">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F148" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>12</v>
       </c>
@@ -3243,8 +3577,11 @@
       <c r="E149">
         <v>9</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F149" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>12</v>
       </c>
@@ -3260,8 +3597,11 @@
       <c r="E150">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F150" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>13</v>
       </c>
@@ -3277,8 +3617,11 @@
       <c r="E151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F151" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>13</v>
       </c>
@@ -3294,8 +3637,11 @@
       <c r="E152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F152" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>13</v>
       </c>
@@ -3311,8 +3657,11 @@
       <c r="E153">
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F153" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>13</v>
       </c>
@@ -3328,8 +3677,11 @@
       <c r="E154">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F154" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>14</v>
       </c>
@@ -3345,8 +3697,11 @@
       <c r="E155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F155" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>14</v>
       </c>
@@ -3362,8 +3717,11 @@
       <c r="E156">
         <v>31</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F156" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>14</v>
       </c>
@@ -3379,8 +3737,11 @@
       <c r="E157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F157" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>14</v>
       </c>
@@ -3396,8 +3757,11 @@
       <c r="E158">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F158" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>14</v>
       </c>
@@ -3413,8 +3777,11 @@
       <c r="E159">
         <v>10</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F159" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>15</v>
       </c>
@@ -3430,8 +3797,11 @@
       <c r="E160">
         <v>21</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F160" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>15</v>
       </c>
@@ -3447,8 +3817,11 @@
       <c r="E161">
         <v>47</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F161" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>15</v>
       </c>
@@ -3464,8 +3837,11 @@
       <c r="E162">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F162" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>15</v>
       </c>
@@ -3481,8 +3857,11 @@
       <c r="E163">
         <v>15</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F163" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>15</v>
       </c>
@@ -3498,8 +3877,11 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F164" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>16</v>
       </c>
@@ -3515,8 +3897,11 @@
       <c r="E165">
         <v>6</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F165" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>16</v>
       </c>
@@ -3532,8 +3917,11 @@
       <c r="E166">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F166" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>16</v>
       </c>
@@ -3549,8 +3937,11 @@
       <c r="E167">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F167" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>16</v>
       </c>
@@ -3566,8 +3957,11 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F168" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>17</v>
       </c>
@@ -3583,8 +3977,11 @@
       <c r="E169">
         <v>51</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F169" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>17</v>
       </c>
@@ -3600,8 +3997,11 @@
       <c r="E170">
         <v>14</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F170" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>17</v>
       </c>
@@ -3617,8 +4017,11 @@
       <c r="E171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F171" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>17</v>
       </c>
@@ -3634,8 +4037,11 @@
       <c r="E172">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F172" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>17</v>
       </c>
@@ -3651,8 +4057,11 @@
       <c r="E173">
         <v>15</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F173" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>18</v>
       </c>
@@ -3668,8 +4077,11 @@
       <c r="E174">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F174" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>18</v>
       </c>
@@ -3685,8 +4097,11 @@
       <c r="E175">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F175" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>18</v>
       </c>
@@ -3702,8 +4117,11 @@
       <c r="E176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F176" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>18</v>
       </c>
@@ -3719,8 +4137,11 @@
       <c r="E177">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F177" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>18</v>
       </c>
@@ -3736,8 +4157,11 @@
       <c r="E178">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F178" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>19</v>
       </c>
@@ -3753,8 +4177,11 @@
       <c r="E179">
         <v>24</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F179" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>19</v>
       </c>
@@ -3770,8 +4197,11 @@
       <c r="E180">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F180" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>19</v>
       </c>
@@ -3787,8 +4217,11 @@
       <c r="E181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F181" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>19</v>
       </c>
@@ -3804,8 +4237,11 @@
       <c r="E182">
         <v>7</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F182" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>19</v>
       </c>
@@ -3821,8 +4257,11 @@
       <c r="E183">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F183" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>20</v>
       </c>
@@ -3838,8 +4277,11 @@
       <c r="E184">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F184" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>20</v>
       </c>
@@ -3855,8 +4297,11 @@
       <c r="E185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F185" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>20</v>
       </c>
@@ -3872,8 +4317,11 @@
       <c r="E186">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F186" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>20</v>
       </c>
@@ -3889,8 +4337,11 @@
       <c r="E187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F187" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>20</v>
       </c>
@@ -3906,8 +4357,11 @@
       <c r="E188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F188" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>21</v>
       </c>
@@ -3923,8 +4377,11 @@
       <c r="E189">
         <v>11</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F189" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>21</v>
       </c>
@@ -3940,8 +4397,11 @@
       <c r="E190">
         <v>26</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F190" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>21</v>
       </c>
@@ -3957,8 +4417,11 @@
       <c r="E191">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F191" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>21</v>
       </c>
@@ -3974,8 +4437,11 @@
       <c r="E192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F192" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>21</v>
       </c>
@@ -3991,8 +4457,11 @@
       <c r="E193">
         <v>6</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F193" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>22</v>
       </c>
@@ -4008,8 +4477,11 @@
       <c r="E194">
         <v>31</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F194" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>22</v>
       </c>
@@ -4025,8 +4497,11 @@
       <c r="E195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F195" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>22</v>
       </c>
@@ -4042,8 +4517,11 @@
       <c r="E196">
         <v>49</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F196" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>22</v>
       </c>
@@ -4059,8 +4537,11 @@
       <c r="E197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F197" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>22</v>
       </c>
@@ -4076,8 +4557,11 @@
       <c r="E198">
         <v>9</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F198" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>22</v>
       </c>
@@ -4093,8 +4577,11 @@
       <c r="E199">
         <v>13</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F199" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>23</v>
       </c>
@@ -4110,8 +4597,11 @@
       <c r="E200">
         <v>14</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F200" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>23</v>
       </c>
@@ -4127,8 +4617,11 @@
       <c r="E201">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F201" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>23</v>
       </c>
@@ -4144,8 +4637,11 @@
       <c r="E202">
         <v>63</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F202" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>23</v>
       </c>
@@ -4161,8 +4657,11 @@
       <c r="E203">
         <v>3</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F203" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>23</v>
       </c>
@@ -4178,8 +4677,11 @@
       <c r="E204">
         <v>16</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F204" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>23</v>
       </c>
@@ -4195,8 +4697,11 @@
       <c r="E205">
         <v>7</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F205" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>24</v>
       </c>
@@ -4212,8 +4717,11 @@
       <c r="E206">
         <v>19</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F206" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>24</v>
       </c>
@@ -4229,8 +4737,11 @@
       <c r="E207">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F207" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>24</v>
       </c>
@@ -4246,8 +4757,11 @@
       <c r="E208">
         <v>18</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F208" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>24</v>
       </c>
@@ -4263,8 +4777,11 @@
       <c r="E209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F209" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>24</v>
       </c>
@@ -4280,8 +4797,11 @@
       <c r="E210">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F210" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>25</v>
       </c>
@@ -4297,8 +4817,11 @@
       <c r="E211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F211" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>25</v>
       </c>
@@ -4314,8 +4837,11 @@
       <c r="E212">
         <v>7</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F212" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>25</v>
       </c>
@@ -4331,8 +4857,11 @@
       <c r="E213">
         <v>4</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F213" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>25</v>
       </c>
@@ -4348,8 +4877,11 @@
       <c r="E214">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F214" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>26</v>
       </c>
@@ -4365,8 +4897,11 @@
       <c r="E215">
         <v>27</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F215" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>26</v>
       </c>
@@ -4382,8 +4917,11 @@
       <c r="E216">
         <v>16</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F216" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>26</v>
       </c>
@@ -4399,8 +4937,11 @@
       <c r="E217">
         <v>34</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F217" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>26</v>
       </c>
@@ -4416,8 +4957,11 @@
       <c r="E218">
         <v>18</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F218" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>27</v>
       </c>
@@ -4433,8 +4977,11 @@
       <c r="E219">
         <v>14</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F219" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>27</v>
       </c>
@@ -4450,8 +4997,11 @@
       <c r="E220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F220" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>27</v>
       </c>
@@ -4467,8 +5017,11 @@
       <c r="E221">
         <v>56</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F221" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>27</v>
       </c>
@@ -4484,8 +5037,11 @@
       <c r="E222">
         <v>16</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F222" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>27</v>
       </c>
@@ -4501,8 +5057,11 @@
       <c r="E223">
         <v>16</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F223" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>28</v>
       </c>
@@ -4518,8 +5077,11 @@
       <c r="E224">
         <v>34</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>28</v>
       </c>
@@ -4535,8 +5097,11 @@
       <c r="E225">
         <v>11</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>28</v>
       </c>
@@ -4552,8 +5117,11 @@
       <c r="E226">
         <v>13</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>28</v>
       </c>
@@ -4569,8 +5137,11 @@
       <c r="E227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F227" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>28</v>
       </c>
@@ -4586,8 +5157,11 @@
       <c r="E228">
         <v>17</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>28</v>
       </c>
@@ -4603,8 +5177,11 @@
       <c r="E229">
         <v>17</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>32</v>
       </c>
@@ -4620,8 +5197,11 @@
       <c r="E230">
         <v>26</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>32</v>
       </c>
@@ -4637,8 +5217,11 @@
       <c r="E231">
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>32</v>
       </c>
@@ -4654,8 +5237,11 @@
       <c r="E232">
         <v>34</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F232" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>32</v>
       </c>
@@ -4671,8 +5257,11 @@
       <c r="E233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>32</v>
       </c>
@@ -4688,8 +5277,11 @@
       <c r="E234">
         <v>15</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>32</v>
       </c>
@@ -4705,8 +5297,11 @@
       <c r="E235">
         <v>13</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>33</v>
       </c>
@@ -4722,8 +5317,11 @@
       <c r="E236">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>33</v>
       </c>
@@ -4739,8 +5337,11 @@
       <c r="E237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F237" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>33</v>
       </c>
@@ -4756,8 +5357,11 @@
       <c r="E238">
         <v>54</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F238" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>33</v>
       </c>
@@ -4773,8 +5377,11 @@
       <c r="E239">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>33</v>
       </c>
@@ -4790,8 +5397,11 @@
       <c r="E240">
         <v>5</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>33</v>
       </c>
@@ -4807,111 +5417,12 @@
       <c r="E241">
         <v>20</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A242">
-        <v>36</v>
-      </c>
-      <c r="B242" t="s">
-        <v>7</v>
-      </c>
-      <c r="C242" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" t="s">
-        <v>4</v>
-      </c>
-      <c r="E242">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A243">
-        <v>36</v>
-      </c>
-      <c r="B243" t="s">
-        <v>7</v>
-      </c>
-      <c r="C243" t="s">
-        <v>9</v>
-      </c>
-      <c r="D243" t="s">
-        <v>4</v>
-      </c>
-      <c r="E243">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A244">
-        <v>36</v>
-      </c>
-      <c r="B244" t="s">
-        <v>10</v>
-      </c>
-      <c r="C244" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" t="s">
-        <v>4</v>
-      </c>
-      <c r="E244">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A245">
-        <v>36</v>
-      </c>
-      <c r="B245" t="s">
-        <v>10</v>
-      </c>
-      <c r="C245" t="s">
-        <v>9</v>
-      </c>
-      <c r="D245" t="s">
-        <v>4</v>
-      </c>
-      <c r="E245">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A246">
-        <v>36</v>
-      </c>
-      <c r="B246" t="s">
-        <v>11</v>
-      </c>
-      <c r="C246" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" t="s">
-        <v>4</v>
-      </c>
-      <c r="E246">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A247">
-        <v>36</v>
-      </c>
-      <c r="B247" t="s">
-        <v>11</v>
-      </c>
-      <c r="C247" t="s">
-        <v>9</v>
-      </c>
-      <c r="D247" t="s">
-        <v>4</v>
-      </c>
-      <c r="E247">
-        <v>18</v>
+      <c r="F241" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E247" xr:uid="{BE086C04-F91E-435B-B239-C158F763509E}"/>
+  <autoFilter ref="A1:F247" xr:uid="{BE086C04-F91E-435B-B239-C158F763509E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4919,11 +5430,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C7CCD9-3305-41F6-8DD2-A94651B2C67E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68:F205"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4958,7 +5470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4984,7 +5496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5010,7 +5522,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5036,7 +5548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5062,7 +5574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5088,7 +5600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5114,7 +5626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2</v>
       </c>
@@ -5140,7 +5652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2</v>
       </c>
@@ -5166,7 +5678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2</v>
       </c>
@@ -5192,7 +5704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5218,7 +5730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5244,7 +5756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5270,7 +5782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5296,7 +5808,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5322,7 +5834,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5349,7 +5861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5375,7 +5887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5401,7 +5913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5427,7 +5939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5453,7 +5965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5479,7 +5991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>4</v>
       </c>
@@ -5505,7 +6017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>4</v>
       </c>
@@ -5531,7 +6043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>4</v>
       </c>
@@ -5557,7 +6069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5583,7 +6095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>5</v>
       </c>
@@ -5609,7 +6121,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>5</v>
       </c>
@@ -5635,7 +6147,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>5</v>
       </c>
@@ -5661,7 +6173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>5</v>
       </c>
@@ -5687,7 +6199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5713,7 +6225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>5</v>
       </c>
@@ -5739,7 +6251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>6</v>
       </c>
@@ -5765,7 +6277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>6</v>
       </c>
@@ -5791,7 +6303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>6</v>
       </c>
@@ -5817,7 +6329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>6</v>
       </c>
@@ -5843,7 +6355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>6</v>
       </c>
@@ -5869,7 +6381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>6</v>
       </c>
@@ -5895,7 +6407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>7</v>
       </c>
@@ -5921,7 +6433,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>7</v>
       </c>
@@ -5947,7 +6459,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>7</v>
       </c>
@@ -5973,7 +6485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>7</v>
       </c>
@@ -5999,7 +6511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>7</v>
       </c>
@@ -6025,7 +6537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>7</v>
       </c>
@@ -6051,7 +6563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>8</v>
       </c>
@@ -6077,7 +6589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>8</v>
       </c>
@@ -6103,7 +6615,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>8</v>
       </c>
@@ -6129,7 +6641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>8</v>
       </c>
@@ -6155,7 +6667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>8</v>
       </c>
@@ -6181,7 +6693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>8</v>
       </c>
@@ -6207,7 +6719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>9</v>
       </c>
@@ -6233,7 +6745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>9</v>
       </c>
@@ -6259,7 +6771,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>9</v>
       </c>
@@ -6285,7 +6797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>9</v>
       </c>
@@ -6311,7 +6823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>9</v>
       </c>
@@ -6337,7 +6849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>9</v>
       </c>
@@ -6363,7 +6875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>10</v>
       </c>
@@ -6389,7 +6901,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>10</v>
       </c>
@@ -6415,7 +6927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>10</v>
       </c>
@@ -6441,7 +6953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>10</v>
       </c>
@@ -6467,7 +6979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>10</v>
       </c>
@@ -6493,7 +7005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>10</v>
       </c>
@@ -6519,7 +7031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>11</v>
       </c>
@@ -6545,7 +7057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>11</v>
       </c>
@@ -6571,7 +7083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>11</v>
       </c>
@@ -6597,7 +7109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>11</v>
       </c>
@@ -6623,7 +7135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>11</v>
       </c>
@@ -6649,7 +7161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>11</v>
       </c>
@@ -6675,7 +7187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>12</v>
       </c>
@@ -6701,7 +7213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>12</v>
       </c>
@@ -6727,7 +7239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>12</v>
       </c>
@@ -6753,7 +7265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>12</v>
       </c>
@@ -6779,7 +7291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>12</v>
       </c>
@@ -6805,7 +7317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>12</v>
       </c>
@@ -6831,7 +7343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>13</v>
       </c>
@@ -6857,7 +7369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>13</v>
       </c>
@@ -6883,7 +7395,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>13</v>
       </c>
@@ -6909,7 +7421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>13</v>
       </c>
@@ -6935,7 +7447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>13</v>
       </c>
@@ -6961,7 +7473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>13</v>
       </c>
@@ -6987,7 +7499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>14</v>
       </c>
@@ -7013,7 +7525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>14</v>
       </c>
@@ -7039,7 +7551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>14</v>
       </c>
@@ -7065,7 +7577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>14</v>
       </c>
@@ -7091,7 +7603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>14</v>
       </c>
@@ -7117,7 +7629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>14</v>
       </c>
@@ -7143,7 +7655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>15</v>
       </c>
@@ -7169,7 +7681,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>15</v>
       </c>
@@ -7195,7 +7707,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>15</v>
       </c>
@@ -7221,7 +7733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>15</v>
       </c>
@@ -7247,7 +7759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>15</v>
       </c>
@@ -7273,7 +7785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>15</v>
       </c>
@@ -7299,7 +7811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>16</v>
       </c>
@@ -7325,7 +7837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>16</v>
       </c>
@@ -7351,7 +7863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>16</v>
       </c>
@@ -7377,7 +7889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>16</v>
       </c>
@@ -7403,7 +7915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>16</v>
       </c>
@@ -7429,7 +7941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>16</v>
       </c>
@@ -7455,7 +7967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>17</v>
       </c>
@@ -7481,7 +7993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>17</v>
       </c>
@@ -7507,7 +8019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>17</v>
       </c>
@@ -7533,7 +8045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>17</v>
       </c>
@@ -7559,7 +8071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>17</v>
       </c>
@@ -7585,7 +8097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>17</v>
       </c>
@@ -7611,7 +8123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>18</v>
       </c>
@@ -7637,7 +8149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>18</v>
       </c>
@@ -7663,7 +8175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>18</v>
       </c>
@@ -7689,7 +8201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>18</v>
       </c>
@@ -7715,7 +8227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>18</v>
       </c>
@@ -7741,7 +8253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>18</v>
       </c>
@@ -7767,7 +8279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>19</v>
       </c>
@@ -7793,7 +8305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>19</v>
       </c>
@@ -7819,7 +8331,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>19</v>
       </c>
@@ -7845,7 +8357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>19</v>
       </c>
@@ -7871,7 +8383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>19</v>
       </c>
@@ -7897,7 +8409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>19</v>
       </c>
@@ -7923,7 +8435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>20</v>
       </c>
@@ -7949,7 +8461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>20</v>
       </c>
@@ -7975,7 +8487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>20</v>
       </c>
@@ -8001,7 +8513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>20</v>
       </c>
@@ -8027,7 +8539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>20</v>
       </c>
@@ -8053,7 +8565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>20</v>
       </c>
@@ -8079,7 +8591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>21</v>
       </c>
@@ -8105,7 +8617,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>21</v>
       </c>
@@ -8131,7 +8643,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>21</v>
       </c>
@@ -8157,7 +8669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>21</v>
       </c>
@@ -8183,7 +8695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>21</v>
       </c>
@@ -8209,7 +8721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>21</v>
       </c>
@@ -8235,7 +8747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>22</v>
       </c>
@@ -8261,7 +8773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>22</v>
       </c>
@@ -8287,7 +8799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>22</v>
       </c>
@@ -8313,7 +8825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>22</v>
       </c>
@@ -8339,7 +8851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>22</v>
       </c>
@@ -8365,7 +8877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>22</v>
       </c>
@@ -8391,7 +8903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>23</v>
       </c>
@@ -8417,7 +8929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>23</v>
       </c>
@@ -8443,7 +8955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>23</v>
       </c>
@@ -8469,7 +8981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>23</v>
       </c>
@@ -8495,7 +9007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>23</v>
       </c>
@@ -8521,7 +9033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>23</v>
       </c>
@@ -8547,7 +9059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>24</v>
       </c>
@@ -8573,7 +9085,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>24</v>
       </c>
@@ -8599,7 +9111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>24</v>
       </c>
@@ -8625,7 +9137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>24</v>
       </c>
@@ -8651,7 +9163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>24</v>
       </c>
@@ -8677,7 +9189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>24</v>
       </c>
@@ -8703,7 +9215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>25</v>
       </c>
@@ -8729,7 +9241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>25</v>
       </c>
@@ -8755,7 +9267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>25</v>
       </c>
@@ -8781,7 +9293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>25</v>
       </c>
@@ -8807,7 +9319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>25</v>
       </c>
@@ -8833,7 +9345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>25</v>
       </c>
@@ -8859,7 +9371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>26</v>
       </c>
@@ -8885,7 +9397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>26</v>
       </c>
@@ -8911,7 +9423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>26</v>
       </c>
@@ -8937,7 +9449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>26</v>
       </c>
@@ -8963,7 +9475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>26</v>
       </c>
@@ -8989,7 +9501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>26</v>
       </c>
@@ -9015,7 +9527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>27</v>
       </c>
@@ -9041,7 +9553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>27</v>
       </c>
@@ -9067,7 +9579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>27</v>
       </c>
@@ -9093,7 +9605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>27</v>
       </c>
@@ -9119,7 +9631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>27</v>
       </c>
@@ -9145,7 +9657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>27</v>
       </c>
@@ -9171,7 +9683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>28</v>
       </c>
@@ -9197,7 +9709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>28</v>
       </c>
@@ -9223,7 +9735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>28</v>
       </c>
@@ -9249,7 +9761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>28</v>
       </c>
@@ -9275,7 +9787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>28</v>
       </c>
@@ -9301,7 +9813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>28</v>
       </c>
@@ -9483,7 +9995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>32</v>
       </c>
@@ -9509,7 +10021,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>32</v>
       </c>
@@ -9535,7 +10047,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>32</v>
       </c>
@@ -9561,7 +10073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>32</v>
       </c>
@@ -9587,7 +10099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>32</v>
       </c>
@@ -9613,7 +10125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>32</v>
       </c>
@@ -9639,7 +10151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>33</v>
       </c>
@@ -9665,7 +10177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>33</v>
       </c>
@@ -9691,7 +10203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>33</v>
       </c>
@@ -9717,7 +10229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>33</v>
       </c>
@@ -9743,7 +10255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>33</v>
       </c>
@@ -9769,7 +10281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>33</v>
       </c>
@@ -9795,7 +10307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>34</v>
       </c>
@@ -9821,7 +10333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>34</v>
       </c>
@@ -9847,7 +10359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>34</v>
       </c>
@@ -9873,7 +10385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>34</v>
       </c>
@@ -9899,7 +10411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>34</v>
       </c>
@@ -9925,7 +10437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>34</v>
       </c>
@@ -9951,7 +10463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>35</v>
       </c>
@@ -9977,7 +10489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>35</v>
       </c>
@@ -10003,7 +10515,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>35</v>
       </c>
@@ -10029,7 +10541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>35</v>
       </c>
@@ -10055,7 +10567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>35</v>
       </c>
@@ -10081,7 +10593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>35</v>
       </c>
@@ -10107,7 +10619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>36</v>
       </c>
@@ -10133,7 +10645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>36</v>
       </c>
@@ -10159,7 +10671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>36</v>
       </c>
@@ -10185,7 +10697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>36</v>
       </c>
@@ -10211,7 +10723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>36</v>
       </c>
@@ -10237,7 +10749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>36</v>
       </c>
@@ -10264,27 +10776,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H205" xr:uid="{21C7CCD9-3305-41F6-8DD2-A94651B2C67E}"/>
+  <autoFilter ref="A1:H205" xr:uid="{21C7CCD9-3305-41F6-8DD2-A94651B2C67E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="29"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648A76BD-69D9-4DD3-B643-64EDA9CA8875}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
         <v>85</v>
@@ -10328,8 +10846,11 @@
       <c r="P1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10378,8 +10899,11 @@
       <c r="P2">
         <v>96.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10428,8 +10952,11 @@
       <c r="P3">
         <v>72.781000000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10478,8 +11005,11 @@
       <c r="P4">
         <v>96.59</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10528,8 +11058,11 @@
       <c r="P5">
         <v>53.97</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10578,8 +11111,11 @@
       <c r="P6">
         <v>25.172999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10628,8 +11164,11 @@
       <c r="P7">
         <v>25.266999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10678,8 +11217,11 @@
       <c r="P8">
         <v>34.47</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10728,8 +11270,11 @@
       <c r="P9">
         <v>60.07</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10778,8 +11323,11 @@
       <c r="P10">
         <v>39.597999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10828,8 +11376,11 @@
       <c r="P11">
         <v>55.393999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10878,8 +11429,11 @@
       <c r="P12">
         <v>26.038</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10928,8 +11482,11 @@
       <c r="P13">
         <v>27.44</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10978,8 +11535,11 @@
       <c r="P14">
         <v>25.31</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11028,8 +11588,11 @@
       <c r="P15">
         <v>37.173999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11078,8 +11641,11 @@
       <c r="P16">
         <v>70.430000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11128,8 +11694,11 @@
       <c r="P17">
         <v>34.65</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11178,8 +11747,11 @@
       <c r="P18">
         <v>167.00299999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11228,8 +11800,11 @@
       <c r="P19">
         <v>65.247</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11278,8 +11853,11 @@
       <c r="P20">
         <v>58.34</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11328,8 +11906,11 @@
       <c r="P21">
         <v>46.469000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11378,8 +11959,11 @@
       <c r="P22">
         <v>62.835000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11428,8 +12012,11 @@
       <c r="P23">
         <v>61.008000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11478,8 +12065,11 @@
       <c r="P24">
         <v>43.68</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11528,8 +12118,11 @@
       <c r="P25">
         <v>56.622999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11578,8 +12171,11 @@
       <c r="P26">
         <v>44.936999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11628,8 +12224,11 @@
       <c r="P27">
         <v>58.381</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11678,8 +12277,11 @@
       <c r="P28">
         <v>48.014000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11728,8 +12330,11 @@
       <c r="P29">
         <v>76.619</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11778,8 +12383,11 @@
       <c r="P30">
         <v>55.83</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>32</v>
       </c>
@@ -11828,8 +12436,11 @@
       <c r="P31">
         <v>78.39</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>33</v>
       </c>
@@ -11878,13 +12489,16 @@
       <c r="P32">
         <v>43.918999999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -11928,8 +12542,11 @@
       <c r="P33">
         <v>59.28</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>35</v>
       </c>
@@ -11978,13 +12595,16 @@
       <c r="P34">
         <v>58.814999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12028,8 +12648,12 @@
       <c r="P35">
         <v>108.655</v>
       </c>
+      <c r="Q35" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q35" xr:uid="{648A76BD-69D9-4DD3-B643-64EDA9CA8875}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>